--- a/2.xlsx
+++ b/2.xlsx
@@ -1,68 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>num</t>
-  </si>
-  <si>
-    <t>h2</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> image</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Как отличить сорняк: визуальные признаки&lt;/h2&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;У многих растений есть «двойник» среди сорняков, с которым их часто путают садоводы. Особенно сложно их отличить на этапе рассады, так как в крошечных ростах есть только стебель и пара листков, а они мало отличаются от сорняка. Чтобы случайно не вырвать долгожданные ростки, используйте метод «под шнуром». Для высадки «под шнуром» на земле делают ровную борозду, высевают семена, а потом над этим местом натягивают ровную веревочку на колышках, чтобы она точно показывала место высадки. Всю траву, что растет не под шнурком, можно смело вырывать – это сорняк. Но если вы уже упустили момент, придётся ориентироваться на внешний вид сорняка и его отличия от полезных растений. Или просто дайте им немного времени, ведь с ростом отличия начнут бросаться в глаза, и вы заметите ровный рядок одинаковых растений — их и оставите. Давайте рассмотрим подробнее некоторые способы, которые помогут вам лучше отличать полезные саженцы от сорняков.&lt;/p&gt;
-&lt;p&gt;&lt;img class="alignnone" src="https://supergardener.ru/wp-content/uploads/2023/09/num1.jpg" alt="" width="36" height="35" /&gt; Веревка и колышки: чтобы избежать смешения саженцев и сорняков на рассаду, вы можете использовать метод "под шнуром". Просто натяните веревочку на колышках над засеянным местом, это поможет точно определить, где находится рассада. Все растения, растущие не под шнуром, могут быть удалены как сорняки.&lt;/p&gt;
-&lt;p&gt;&lt;img class="alignnone" src="https://supergardener.ru/wp-content/uploads/2023/09/num2.jpg" alt="" width="36" height="35" /&gt; Ориентируйтесь на внешний вид: если вы упустили момент и на рассаде уже есть и саженцы, и сорняки, подсмотрите внешние отличия между ними. Внимательно рассмотрите форму и окрас листьев, высоту и толщину стебля. Часто полезные растения имеют более ровные и опрятные листья, более толстые стебли, в то время как сорняки могут иметь более длинные и тонкие листья, более неприятный запах или волокнистые корни.&lt;/p&gt;
-&lt;p&gt;&lt;img class="alignnone" src="https://supergardener.ru/wp-content/uploads/2023/09/num3.jpg" alt="" width="36" height="35" /&gt; Подождите и ростите: если вам все еще сложно отличить рассаду от сорняков, просто дайте им немного времени. По мере роста растений, отличия станут более заметными. Вы заметите, что полезные растения будут расти в ровных рядках, их листья и стебли будут иметь однородную форму. В то время как сорняки могут быть более неравномерными и растущими в случайном порядке.&lt;/p&gt;
-&lt;p&gt;Используйте эти методы и уделите время наблюдению за рассадой, чтобы лучше различать полезные растения от сорняков и обеспечить их успешное развитие.&lt;/p&gt;
-</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -77,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -393,42 +420,421 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>num</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>h2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> image</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>&lt;h2&gt;Описание&lt;/h2&gt;</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Основными характеристиками являются: вегетационный период, который составляет определенное количество дней, и урожайность, то есть количество плодов, которые созревают на каждом кусте. В случае с тыквой Бенинказа, вегетационный период составляет 80 дней, а урожайность составляет 12 плодов с каждого куста. Если вы хотите узнать больше о характерных особенностях и полезных свойствах восковой тыквы Бенинказа, рекомендуется посмотреть представленное видео.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>&lt;h2&gt;Полезные свойства&lt;/h2&gt;</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Плоды Бенинказы, также известные как восковая тыква, содержат много витаминов и полезных веществ, поэтому они широко используются в медицинских целях. Не только мякоть, но и кожура, семена и листья обладают лечебными свойствами. Употребление восковой тыквы рекомендуется при сахарном диабете, сердечно-сосудистых и желудочно-кишечных заболеваниях. Она помогает снизить уровень сахара в крови, укрепить сердечно-сосудистую систему и улучшить работу желудка и кишечника. Польза восковой тыквы заключается в ее способности повысить иммунитет, улучшить пищеварение и общее состояние организма.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>&lt;h2&gt;Через рассаду&lt;/h2&gt;</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;На Севере и в центральных регионах овощи выращивают рассадным способом. Для этого семена высаживают на рассаду за 25-30 дней до пересадки на постоянное место. Однако, чтобы рассада хорошо росла, необходимо выполнить некоторые дополнительные шаги. После прорастания следует аккуратно срезать более слабые ростки ножницами. Непосредственно в грунт растения нужно высаживать ближе к началу июня, когда погода на улице стабильно теплая. Вместо этого можно также пересадить рассаду в парник, где температура поддерживается на уровне 25-30 градусов. Такой способ особенно подходит для холодных климатических регионов, где выращивание теплолюбивых овощей возможно только в теплице.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>&lt;h2&gt;Высевание семян в открытый грунт&lt;/h2&gt;</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Высевание семян в открытый грунт - это процесс, который требует определенных условий. Одним из важных факторов является температура почвы, которая не должна быть ниже 10 градусов. Этот метод наиболее эффективен в жарких климатических условиях. При проведении посадки семян в открытый грунт следует придерживаться определенного порядка действий.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>&lt;h2&gt;Борьба с вредителями и болезнями&lt;/h2&gt;</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Паразитами, опасными для Бенинказы, являются различные вредители и болезни. Заводится из-за обилия сорняков на участке, поэтому важно уделить внимание прополке и удалению сорняков. Также рекомендуется опрыскать тыкву мыльным раствором низкой концентрации, чтобы предотвратить заражение. Для защиты от клеща помогут луковые и чесночные настои.&lt;/p&gt;
+&lt;p&gt;Среди возможных болезней тыквы стоит обратить внимание на контроль поливов и подкормок, что поможет избежать развития заболевания. Также важно учесть, что споры грибка могут находиться в почве. Поэтому рекомендуется обработать растение инсектицидами, например, Фитовермом, чтобы предотвратить их перенос насекомыми. Для тех, кто не хочет использовать химические препараты, можно посоветовать опрыскивание настоем шелухи лука, который готовится из расчёта 200 г сырья на 1 ведро воды.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>&lt;img src="https://supergardener.ru/wp-content/uploads/2023/11/pochemu-zhelteyut-listya-u-tykvy-chto-delat-4.webp" alt=f"Борьба с вредителями и болезнями"&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>&lt;h2&gt;Отзывы&lt;/h2&gt;</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;"""Чтобы узнать больше о восковой тыкве, обратитесь к отзывам людей, уже знакомых с выращиванием этого сорта культуры. Если вам интересны отзывы других фермеров, можете скрыть уже имеющиеся отзывы и добавить свой собственный. Не забудьте указать ваше имя и город, а также оценить качество тыквы. Если звезды рейтинга не отображаются, пожалуйста, обновите страницу. &lt;/p&gt;
+&lt;p&gt;Чтобы получить более полное представление о сорте Бенинказа, рекомендуем посмотреть видеообзор этой тыквы. &lt;/p&gt;
+&lt;p&gt;Перед выращиванием восковой тыквы необходимо создать оптимальные условия для ее развития. Уделите внимание температуре воздуха и освещению, подготовьте почву и проведите профилактические мероприятия для защиты от вредителей. Только таким образом вам удастся получить крупные и вкусные плоды."""&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>&lt;h2&gt;&lt;/h2&gt;</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Узнайте, как вырастить диковинную лиану Бенинказа или восковую тыкву, а также как правильно посадить и ухаживать за кампсисом. Здесь вы найдете полезные советы, инструкции по уходу и рекомендации для успешного выращивания этих растений. Бенинказа, или восковая тыква, — это растение, которое отличается своей необычной формой и уникальными свойствами. Этот вид лианы происходит из тропических стран, однако с помощью семян вы можете вырастить его и в своем саду. Бенинказа обладает огромным потенциалом для выращивания и употребления в пищу. Для посадки бенинказы можно использовать как семена, так и рассаду. Семена этого растения обладают высокой способностью к хранению, поэтому вы можете сохранить их на длительное время и использовать для посадки в удобное для вас время. Состав бенинказы богат различными питательными веществами, включая витамины и минералы. Ростки бенинказы достаточно быстро появляются, и вскоре из них начинают развиваться кусты лианы.&lt;/p&gt;
+&lt;p&gt;Видео, описывающее процесс выращивания этого растения, предоставляет интересные факты о его происхождении и свойствах. Бенинказа используется в качестве мочегонного средства и тонизирующего напитка. Бенинказу можно выращивать как на открытых грядках, так и на шпалеру. Этот вид лианы достигает впечатляющих размеров и может превратить ваш сад в настоящий рай. Опыт выращивания бенинказы позволяет достичь богатого урожая, хотя среди некоторых сортов этой тыквы имеются противопоказания для употребления в пищу. &lt;/p&gt;
+&lt;p&gt;Таким образом, выращивание восковой тыквы — это увлекательный эксперимент, в ходе которого вы можете узнать много интересного о растении и получить плотные плоды. Несмотря на некоторые противопоказания, бенинказа является ценным и полезным растением, которое может стать украшением вашего сада и источником ценных питательных веществ для вашего организма. Выращивание этих растений требует тщательного ухода, так как они нуждаются в регулярном поливе, подкормках и защите от вредителей. Однако, при правильном уходе вы будете вознаграждены красивыми и продуктивными растениями, которые будут радовать вас своими плодами или яркими цветами. Выращивание диковинных лиан и тыквы - это отличный способ разнообразить ваш сад и получить удовольствие от ухода за экзотическими растениями.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>&lt;h2&gt;Выращивание бенинказы&lt;/h2&gt;</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Чтобы успешно вырастить бенинказу, необходимо выбрать подходящее место для ее посадки. Это растение будет чувствовать себя прекрасно в теплой комнате или теплице, где есть достаточно света. При выборе места для выращивания бенинказы имейте в виду, что она любит яркий свет. Поэтому старайтесь выбрать место с хорошей освещенностью.&lt;/p&gt;
+&lt;p&gt;Для посадки бенинказы используются семена, которые перед посевом нужно освободить от мякоти. Идеальное время для посева – это теплое время года, особенно весна. После посадки растение требует тщательного ухода, который включает регулярные поливы и подкормки. Бенинказа очень быстро растет, особенно в период активного роста. Поэтому она требует больше внимания. Важно следить за составом грунта и поддерживать его оптимальную влажность. Также необходимо регулярно поливать и подкармливать растение полезными веществами.&lt;/p&gt;
+&lt;p&gt;Существуют красивоплодные сорта бенинказы, которые выращиваются для декоративных целей. Эти сорта характеризуются большими и яркими плодами с необычными формами и цветами. Они могут стать настоящим украшением вашего сада или офиса.&lt;/p&gt;
+&lt;p&gt;Однако выращивание бенинказы также требует борьбы с болезнями и вредителями. Растение может быть подвержено атакам грибков и насекомых. Для предотвращения возникновения болезней рекомендуется обработка растения специальными препаратами.&lt;/p&gt;
+&lt;p&gt;Бенинказа тыква имеет низкую калорийность и может быть использована в различных блюдах. Мякоть тыквы можно очистить от кожуры и приготовить жарким способом, добавить в салаты или использовать для приготовления пюре.&lt;/p&gt;
+&lt;p&gt;Как видите, выращивание бенинказы – это не только увлекательный процесс, но и полезный для здоровья. Если вы хотите вырастить эту экзотическую лиану или восковую тыкву, то можете быть уверены, что она привлечет внимание своей красотой и будет полезной для вашего здоровья.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>&lt;h2&gt;Выбор места для выращивания&lt;/h2&gt;</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Бенинказа или восковая тыква – это растения, которые требуют много света для нормального развития. Поэтому лучшим местом для их выращивания будет южное или юго-западное окно, где они будут получать достаточно солнечного света. В том случае, если вы планируете выращивать растение в комнате, где мало солнечного света, можно использовать дополнительные искусственные источники освещения, такие как фитолампы, чтобы обеспечить растения достаточным количеством света для их роста и развития. Это позволит вам создать оптимальные условия для растения, даже если его естественному освещению не хватает.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>&lt;h2&gt;Уход за растением&lt;/h2&gt;</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Уход за бенинказой или восковой тыквой включает несколько важных аспектов, чтобы обеспечить здоровое развитие растения. Регулярный полив является одним из ключевых моментов и требует умеренного подхода. Как переувлажнение, так и недостаток влаги могут негативно сказаться на корнях, поэтому следует поддерживать оптимальный уровень влажности для растения. Более того, для стимуляции роста и урожайности рекомендуется использовать удобрения с микроэлементами, которые позволят растению получить все необходимые питательные вещества.&lt;/p&gt;
+&lt;p&gt;Однако, помимо полива и удобрения, необходимо также учитывать возможные проблемы, связанные с вредителями и болезнями. Регулярные осмотры растений помогут своевременно обнаружить наличие вредителей и провести необходимые профилактические мероприятия. Это может включать применение натуральных средств защиты, обрезку пораженных участков или использование специальных препаратов.&lt;/p&gt;
+&lt;p&gt;Наконец, для успешного выращивания бенинказы или восковой тыквы важно учитывать выбор места, подготовку и подход к посадке. Правильное место со светом и теплом, подготовленный рыхлый грунт и аккуратная посадка помогут обеспечить здоровый и эффектный рост растений. Используя все эти советы и рекомендации, вы сможете наслаждаться чудесными плодами бенинказы или восковой тыквы и создать уникальную и красивую обстановку в своем саду.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>&lt;h2&gt;Подготовка почвы и посадка растения&lt;/h2&gt;</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Первым шагом для выращивания восковой тыквы является приобретение семян. Важно отметить, что восковая тыква, также известная как Бенинказа, отличается от обычной тыквы своими щетинисто-волосистыми листьями. Семена следует посадить в землю, на глубину около 2-3 см, и выращивать рассаду в течение 25-30 дней до посадки ее в открытый грунт.&lt;/p&gt;
+&lt;p&gt;Для посадки рассады выберите качественный и подходящий участок с плодородной почвой. Восковая тыква выглядит как куст, способный достигать длины около 5-10 метров. Посадка может быть выполнена как в открытом грунте, так и в грядке. Перед посадкой растения раскопайте ямку глубиной около 20-25 см и добавьте перегней или компост. Затем поместите рассаду в ямку, придавите землю и хорошо полейте. Расстояние между растениями должно быть около 1-1,5 метров, чтобы дать им достаточное пространство для роста.&lt;/p&gt;
+&lt;p&gt;После посадки растений уделяйте им правильный уход. Постоянно поддерживайте почву во время всего периода роста, регулярно поливайте растения. Восковая тыква требует достаточного количества влаги для нормального развития. Также следует обрабатывать растения от болезней и вредителей.&lt;/p&gt;
+&lt;p&gt;Восковая тыква растет быстро и может начать плодоносить уже через 70-80 дней после посадки. Ее мякоть мягкая и сочная, отлично подходит для приготовления различных блюд. Выращивание восковой тыквы на даче или в саду - отличный способ получить свежие и полезные продукты.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>&lt;h2&gt;Борьба с вредителями и заболеваниями&lt;/h2&gt;</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Выращивание бенинказы или восковой тыквы требует постоянной борьбы с вредителями и заболеваниями. В данном разделе мы рассмотрим, эффективные методы борьбы с ними, чтобы обеспечить безопасный и здоровый рост растения.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>&lt;h2&gt;Борьба с заболеваниями&lt;/h2&gt;</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Наиболее распространенными заболеваниями бенинказы и восковой тыквы являются грибковые инфекции, такие как мучнистая роса и черная ножка. Чтобы предотвратить эти заболевания, рекомендуется использовать специальные препараты, согласно инструкции производителя. Кроме того, следите за состоянием почвы и регулярно подкармливайте растение. Поливайте его периодически и используйте удобрения с высоким содержанием азота, фосфора и калия. Таким образом, вы повысите устойчивость растения к заболеваниям и ускорите его рост. Однако, избегайте излишнего увлажнения почвы, так как это может спровоцировать развитие гнили и других заболеваний. Кроме того, регулярно обрезайте куст для придания ему нужной формы и стимуляции роста. Если у вас возникли серьезные проблемы с вредителями или заболеваниями, лучше обратиться к специалисту или поискать информацию на специализированных форумах и видео. Помните, что каждый случай индивидуален, поэтому качественная диагностика и разумная борьба помогут вам успешно вырастить бенинказу или восковую тыкву.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>&lt;h2&gt;Посадка и размещение&lt;/h2&gt;</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Перед посадкой восковой тыквы на вашей личной даче или в саду, стоит уделить внимание выбору места для нее. Чтобы растение развивалось успешно, рекомендуется выбрать место, где есть достаточное освещение, но при этом оно должно быть защищено от прямых солнечных лучей и ветра. Восковая тыква вполне устойчива к неблагоприятным условиям, однако ее лучше разместить в теплой и без сквозняков зоне, чтобы обеспечить ее оптимальный рост.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>&lt;h2&gt;Полив и подкормка&lt;/h2&gt;</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Восковая тыква требует регулярного полива во время роста и цветения. Растение нуждается в достаточном количестве влаги, чтобы гарантировать его здоровый рост. Однако, необходимо быть осторожным и не допускать застой влаги, так как это может привести к гниению корней. Чтобы избежать этого, рекомендуется поливать растение умеренно, но регулярно, чтобы поддерживать оптимальный уровень влаги для его развития. Кроме того, для обеспечения дополнительного питания тыквы, можно использовать универсальные комплексные удобрения или специальные удобрения, разработанные специально для этого растения.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>&lt;h2&gt;Обрезка&lt;/h2&gt;</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Обрезка восковой тыквы является важным аспектом для формирования растения и повышения урожайности. Первую обрезку рекомендуется выполнить через 25-30 дней после посадки, с удалением всех боковых побегов и оставлением только одного главного побега. Далее следует проводить еженедельные обрезки с целью предотвращения запутывания растения и достижения равномерного развития. Обрезку необходимо проводить с помощью острых и чистых инструментов, предварительно дезинфицировав их спиртом.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>&lt;h2&gt;Плодоношение и урожай&lt;/h2&gt;</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Восковая тыква, также известная как ягодная тыква, начинает плодоносить через 25-30 дней после посадки. Она формирует красивоплодные ягоды с золотистой или оранжевой кожурой, которые нашли применение в кулинарии для приготовления различных блюд. Длительность плодоношения может варьироваться в зависимости от условий и сорта, но в среднем составляет несколько месяцев. Чтобы обеспечить более обильный урожай, рекомендуется регулярно подкармливать растение нутриентами и удобрениями во время его развития и плодоношения. Это способствует здоровому росту растения и увеличению количества и качества собранных ягод.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>&lt;h2&gt;Урожай и сбор плодов&lt;/h2&gt;</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Бенинказа – это растение с плотными плодами, которые можно хранить до 25-30 дней в зимней кладовке. Но необходимо помнить, что незрелые плоды не годятся для пищевого употребления. Выращивание бенинказы возможно на открытом грунте, но для достижения лучших результатов рекомендуется использовать шпалеру для поддержки растения. Необходимо также правильно формировать куст, чтобы он был устойчивым. Питательные вещества в почве имеют важное значение для роста бенинказы, поэтому подкормка необходима. Если почва не содержит достаточное количество питательных веществ, это может привести к появлению плодов неправильной формы или цвета. Кроме того, растение подвержено атакам вредителей, поэтому рекомендуется использовать противошпалерную обработку. Сбор плодов бенинказы может начинаться в конце лета и продолжаться до начала осени, в зависимости от климатических условий. Их форма и цвет делают плоды бенинказы интересными для использования в кулинарии. Бенинказа обладает также полезными свойствами, такими как мочегонное и тонизирующее действие. Однако перед употреблением плодов рекомендуется проконсультироваться с врачом, так как есть противопоказания. Сбор плодов бенинказы может производиться в несколько этапов – сперва собираются незрелые плоды для дальнейшего выращивания, затем собираются плоды в зрелом состоянии для использования в пищу. Кроме того, плоды бенинказы имеют долгий срок хранения, чтобы можно было использовать их несколько недель. Собирание плодов бенинказы – это не только полезное, но и интересное занятие. Она станет прекрасным украшением вашего сада или огорода. Вы можете использовать собранные плоды для экспериментов на кухне и приготовления интересных блюд. Благодаря бенинказе вы можете стать интересным собеседником для своих соседей и друзей, заинтриговав их таким необычным растением.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/2.xlsx
+++ b/2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,16 +464,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;Описание&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;6 народных правил, как сохранить огород от сглаза&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;p&gt;Основными характеристиками являются: вегетационный период, который составляет определенное количество дней, и урожайность, то есть количество плодов, которые созревают на каждом кусте. В случае с тыквой Бенинказа, вегетационный период составляет 80 дней, а урожайность составляет 12 плодов с каждого куста. Если вы хотите узнать больше о характерных особенностях и полезных свойствах восковой тыквы Бенинказа, рекомендуется посмотреть представленное видео.&lt;/p&gt;
+          <t xml:space="preserve">&lt;p&gt;Существуют люди, которые обладают особо сильной отрицательной энергетикой и могут нанести вред вашему любимому огороду, просто глянув на него с завистью. Такое явление называют в народе "дурной глаз". Однако, чтобы защитить себя от этого негатива, можно выполнить ряд специальных действий, которые не дадут ему проникнуть на ваш приусадебный участок. &lt;/p&gt;
+&lt;p&gt;&lt;li&gt;Вопервых, посадите на самом видном месте космею. Это растение считается отличным защитником от дурного глаза. &lt;/li&gt;&lt;/p&gt;
+&lt;p&gt;&lt;li&gt;Вовторых, заройте небольшие зеркальца в углах вашего участка. Они отражают отрицательную энергию и защищают ваш огород от вредоносных воздействий. &lt;/li&gt;&lt;/p&gt;
+&lt;p&gt;Третье, установите пугало без лица. Не рисуйте лицо на пугале и не изображайте его, чтобы не привлекать внимание дурного глаза. &lt;/p&gt;
+&lt;p&gt;Четвертое, добавьте осиновые прутики или колья в огород. Они считаются амулетом, отводящим негативное воздействие. &lt;/p&gt;
+&lt;p&gt;Пятая мера защиты - завяжите красную тесьму на заборе. Красный цвет считается защитным от дурного глаза. &lt;/p&gt;
+&lt;p&gt;И, наконец, поставьте метлу с прутьями вверх при входе на огород. Это символическое действие помогает отогнать негатив и защитить вашу землю.&lt;/p&gt;
+&lt;p&gt;Таким образом, используя эти методы защиты, вы сохраните свой огород от дурного глаза и сможете наслаждаться его процветанием.&lt;/p&gt;
 </t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>&lt;img src="https://supergardener.ru/wp-content/uploads/2023/11/2302032.jpg" alt=f"6 народных правил, как сохранить огород от сглаза"&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -484,12 +495,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;Полезные свойства&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;Не стоит показывать свои грядки соседям&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;p&gt;Плоды Бенинказы, также известные как восковая тыква, содержат много витаминов и полезных веществ, поэтому они широко используются в медицинских целях. Не только мякоть, но и кожура, семена и листья обладают лечебными свойствами. Употребление восковой тыквы рекомендуется при сахарном диабете, сердечно-сосудистых и желудочно-кишечных заболеваниях. Она помогает снизить уровень сахара в крови, укрепить сердечно-сосудистую систему и улучшить работу желудка и кишечника. Польза восковой тыквы заключается в ее способности повысить иммунитет, улучшить пищеварение и общее состояние организма.&lt;/p&gt;
+          <t xml:space="preserve">&lt;p&gt;Многие замечают, как после восторженных соседских возгласов о том, какой у вас богатый и пышный урожай, растения вскоре вянут и чахнут. С этим, хоть раз, сталкивался любой дачник. Еще вчера, благоухающие перцы, томаты и огурцы начинают гибнуть без видимой причины, плоды опадают, кусты сохнут. Такая ситуация может быть результатом влияния зависти, которая является одним из потусторонних сил. Даже несознательно, человек может навредить, не желая ничего плохого соседям. Но зависть, притаившаяся глубоко внутри, самостоятельно совершит «темное дело». Чтобы избежать таких неприятностей, необходимо не допускать зависти и просто не позволять проводить «экскурсии» по своему огороду. Не стоит брать у соседей какие-либо предметы, включая инвентарь. Ведь такие действия также могут привести к потере урожая, поэтому не стоит рисковать.&lt;/p&gt;
 </t>
         </is>
       </c>
@@ -504,16 +515,20 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;Через рассаду&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;Не нужно угощать соседей овощами и фруктами со своего участка&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;p&gt;На Севере и в центральных регионах овощи выращивают рассадным способом. Для этого семена высаживают на рассаду за 25-30 дней до пересадки на постоянное место. Однако, чтобы рассада хорошо росла, необходимо выполнить некоторые дополнительные шаги. После прорастания следует аккуратно срезать более слабые ростки ножницами. Непосредственно в грунт растения нужно высаживать ближе к началу июня, когда погода на улице стабильно теплая. Вместо этого можно также пересадить рассаду в парник, где температура поддерживается на уровне 25-30 градусов. Такой способ особенно подходит для холодных климатических регионов, где выращивание теплолюбивых овощей возможно только в теплице.&lt;/p&gt;
+          <t xml:space="preserve">&lt;p&gt;Здесь та же история — только вы угостили соседку яблоками, как дерево на следующий год перестало плодоносить. Такие случаи нередки, а причина одна — зависть и темные мысли. И это даже может быть не только из-за соседей, они могли рассказать кому-то еще о ваших чудесных яблоках, а завистников вокруг всегда немало. Если даже соседи просят попробовать что-то с ваших кустов или деревьев — лучше тактично отказаться. Даже приличные доброжелательные с виду люди могут стать источником подсознательной зависти и проблем для вас. Поэтому, лучше пригласите соседей домой на чашку чая с пирогом, а не на экскурсию по вашему участку.&lt;/p&gt;
 </t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>&lt;img src="https://supergardener.ru/wp-content/uploads/2023/11/2302036.jpg" alt=f"Не нужно угощать соседей овощами и фруктами со своего участка"&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -524,16 +539,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;Высевание семян в открытый грунт&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;Как «наколдовать» хороший урожай&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;p&gt;Высевание семян в открытый грунт - это процесс, который требует определенных условий. Одним из важных факторов является температура почвы, которая не должна быть ниже 10 градусов. Этот метод наиболее эффективен в жарких климатических условиях. При проведении посадки семян в открытый грунт следует придерживаться определенного порядка действий.&lt;/p&gt;
+          <t xml:space="preserve">&lt;p&gt;Уважаемые садоводы! Предлагаем вам уникальный способ оберега, который поможет вам получить максимальный урожай с грядок. Вставьте два острых ножа в землю, направляя их лезвия друг на друга в диагональном положении. Этот оберег будет защищать ваш сад от всяких негативных воздействий. &lt;/p&gt;
+&lt;p&gt;Хочу поделиться ещё одним секретом. Высаживайте семена или рассаду в землю только в одиночестве, когда никого нет рядом. Не показывайте никому свою посадку, даже близким друзьям. В процессе высадки произносите фразу: "Расти, не плошай, ждет большой урожай!". Если вы замечаете, что рассада плохо приживается, попробуйте читать "Отче наш" над ростками на убывающей луне, а также опрыскивать их святой водой. &lt;/p&gt;
+&lt;p&gt;Если вы заметили какие-либо нарушения, пожалуйста, сообщите нам о содержании.&lt;/p&gt;
 </t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>&lt;img src="https://supergardener.ru/wp-content/uploads/2023/11/779408_300x200.jpg" alt=f"Как «наколдовать» хороший урожай"&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -544,295 +565,25 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;Борьба с вредителями и болезнями&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;p&gt;Паразитами, опасными для Бенинказы, являются различные вредители и болезни. Заводится из-за обилия сорняков на участке, поэтому важно уделить внимание прополке и удалению сорняков. Также рекомендуется опрыскать тыкву мыльным раствором низкой концентрации, чтобы предотвратить заражение. Для защиты от клеща помогут луковые и чесночные настои.&lt;/p&gt;
-&lt;p&gt;Среди возможных болезней тыквы стоит обратить внимание на контроль поливов и подкормок, что поможет избежать развития заболевания. Также важно учесть, что споры грибка могут находиться в почве. Поэтому рекомендуется обработать растение инсектицидами, например, Фитовермом, чтобы предотвратить их перенос насекомыми. Для тех, кто не хочет использовать химические препараты, можно посоветовать опрыскивание настоем шелухи лука, который готовится из расчёта 200 г сырья на 1 ведро воды.&lt;/p&gt;
+          <t xml:space="preserve">&lt;p&gt;Утро, пока прохладно и не жарко, приглашаю на наш огород ... почему наш, потому, что трудимся тремя семьями, копаем, садим, ухаживаем, а потом собираем замечательные овощи. Приглашаю вас присоединиться и прогуляться со мной по увлекательному пути нашей земли. Все фото, которые вы увидите ниже, я сделала сегодня утром без использования фотошопа. Ну, что же, поехали!&lt;/p&gt;
+&lt;p&gt;Начну с острого перца - у нас их много! Это мое самое любимое место. А еще есть помидорный рай, где в песке воробьи любят купаться. Это так забавно наблюдать за ними! Жаль, что они не попали в кадр, но сегодня я обязательно сделаю снимки. Кабачковый рай и капустка тоже вызывают восхищение. А вот огуречный рай - это истинное наслаждение!&lt;/p&gt;
+&lt;p&gt;А у нас также растет фасоль стручковая. Скоро соберем урожай. А вот помидорчики - сладенькие и ароматные. Мы выращиваем свой салат, морковку, укроп, петрушку и лук порей. Чем больше, тем лучше!&lt;/p&gt;
+&lt;p&gt;А тут у нас разросся хрен. Морковка выглядит прекрасно. У соседа абрикосы тоже радуют глаз. Он всегда угощает нас своим урожаем. А у соседки много цветов, она очень любит ими заниматься.&lt;/p&gt;
+&lt;p&gt;А это наша яблоня. Немного декорации добавило особого очарования. Спасибо, что прогулялись со мной по нашему огороду. Я обожаю утром пить кофе и читать журнал на улице. Собрала яблочки, которые упали - подумаю, что с ними сделать. Теперь я допила кофе, полила огород и отправляюсь по своим делам.&lt;/p&gt;
+&lt;p&gt;Источник: Понравилась статья? Подпишитесь на канал, чтобы быть в курсе самых интересных материалов.&lt;/p&gt;
 </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>&lt;img src="https://supergardener.ru/wp-content/uploads/2023/11/pochemu-zhelteyut-listya-u-tykvy-chto-delat-4.webp" alt=f"Борьба с вредителями и болезнями"&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>&lt;h2&gt;Отзывы&lt;/h2&gt;</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">&lt;p&gt;"""Чтобы узнать больше о восковой тыкве, обратитесь к отзывам людей, уже знакомых с выращиванием этого сорта культуры. Если вам интересны отзывы других фермеров, можете скрыть уже имеющиеся отзывы и добавить свой собственный. Не забудьте указать ваше имя и город, а также оценить качество тыквы. Если звезды рейтинга не отображаются, пожалуйста, обновите страницу. &lt;/p&gt;
-&lt;p&gt;Чтобы получить более полное представление о сорте Бенинказа, рекомендуем посмотреть видеообзор этой тыквы. &lt;/p&gt;
-&lt;p&gt;Перед выращиванием восковой тыквы необходимо создать оптимальные условия для ее развития. Уделите внимание температуре воздуха и освещению, подготовьте почву и проведите профилактические мероприятия для защиты от вредителей. Только таким образом вам удастся получить крупные и вкусные плоды."""&lt;/p&gt;
-</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>&lt;h2&gt;&lt;/h2&gt;</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">&lt;p&gt;Узнайте, как вырастить диковинную лиану Бенинказа или восковую тыкву, а также как правильно посадить и ухаживать за кампсисом. Здесь вы найдете полезные советы, инструкции по уходу и рекомендации для успешного выращивания этих растений. Бенинказа, или восковая тыква, — это растение, которое отличается своей необычной формой и уникальными свойствами. Этот вид лианы происходит из тропических стран, однако с помощью семян вы можете вырастить его и в своем саду. Бенинказа обладает огромным потенциалом для выращивания и употребления в пищу. Для посадки бенинказы можно использовать как семена, так и рассаду. Семена этого растения обладают высокой способностью к хранению, поэтому вы можете сохранить их на длительное время и использовать для посадки в удобное для вас время. Состав бенинказы богат различными питательными веществами, включая витамины и минералы. Ростки бенинказы достаточно быстро появляются, и вскоре из них начинают развиваться кусты лианы.&lt;/p&gt;
-&lt;p&gt;Видео, описывающее процесс выращивания этого растения, предоставляет интересные факты о его происхождении и свойствах. Бенинказа используется в качестве мочегонного средства и тонизирующего напитка. Бенинказу можно выращивать как на открытых грядках, так и на шпалеру. Этот вид лианы достигает впечатляющих размеров и может превратить ваш сад в настоящий рай. Опыт выращивания бенинказы позволяет достичь богатого урожая, хотя среди некоторых сортов этой тыквы имеются противопоказания для употребления в пищу. &lt;/p&gt;
-&lt;p&gt;Таким образом, выращивание восковой тыквы — это увлекательный эксперимент, в ходе которого вы можете узнать много интересного о растении и получить плотные плоды. Несмотря на некоторые противопоказания, бенинказа является ценным и полезным растением, которое может стать украшением вашего сада и источником ценных питательных веществ для вашего организма. Выращивание этих растений требует тщательного ухода, так как они нуждаются в регулярном поливе, подкормках и защите от вредителей. Однако, при правильном уходе вы будете вознаграждены красивыми и продуктивными растениями, которые будут радовать вас своими плодами или яркими цветами. Выращивание диковинных лиан и тыквы - это отличный способ разнообразить ваш сад и получить удовольствие от ухода за экзотическими растениями.&lt;/p&gt;
-</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>&lt;h2&gt;Выращивание бенинказы&lt;/h2&gt;</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">&lt;p&gt;Чтобы успешно вырастить бенинказу, необходимо выбрать подходящее место для ее посадки. Это растение будет чувствовать себя прекрасно в теплой комнате или теплице, где есть достаточно света. При выборе места для выращивания бенинказы имейте в виду, что она любит яркий свет. Поэтому старайтесь выбрать место с хорошей освещенностью.&lt;/p&gt;
-&lt;p&gt;Для посадки бенинказы используются семена, которые перед посевом нужно освободить от мякоти. Идеальное время для посева – это теплое время года, особенно весна. После посадки растение требует тщательного ухода, который включает регулярные поливы и подкормки. Бенинказа очень быстро растет, особенно в период активного роста. Поэтому она требует больше внимания. Важно следить за составом грунта и поддерживать его оптимальную влажность. Также необходимо регулярно поливать и подкармливать растение полезными веществами.&lt;/p&gt;
-&lt;p&gt;Существуют красивоплодные сорта бенинказы, которые выращиваются для декоративных целей. Эти сорта характеризуются большими и яркими плодами с необычными формами и цветами. Они могут стать настоящим украшением вашего сада или офиса.&lt;/p&gt;
-&lt;p&gt;Однако выращивание бенинказы также требует борьбы с болезнями и вредителями. Растение может быть подвержено атакам грибков и насекомых. Для предотвращения возникновения болезней рекомендуется обработка растения специальными препаратами.&lt;/p&gt;
-&lt;p&gt;Бенинказа тыква имеет низкую калорийность и может быть использована в различных блюдах. Мякоть тыквы можно очистить от кожуры и приготовить жарким способом, добавить в салаты или использовать для приготовления пюре.&lt;/p&gt;
-&lt;p&gt;Как видите, выращивание бенинказы – это не только увлекательный процесс, но и полезный для здоровья. Если вы хотите вырастить эту экзотическую лиану или восковую тыкву, то можете быть уверены, что она привлечет внимание своей красотой и будет полезной для вашего здоровья.&lt;/p&gt;
-</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>&lt;h2&gt;Выбор места для выращивания&lt;/h2&gt;</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">&lt;p&gt;Бенинказа или восковая тыква – это растения, которые требуют много света для нормального развития. Поэтому лучшим местом для их выращивания будет южное или юго-западное окно, где они будут получать достаточно солнечного света. В том случае, если вы планируете выращивать растение в комнате, где мало солнечного света, можно использовать дополнительные искусственные источники освещения, такие как фитолампы, чтобы обеспечить растения достаточным количеством света для их роста и развития. Это позволит вам создать оптимальные условия для растения, даже если его естественному освещению не хватает.&lt;/p&gt;
-</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>&lt;h2&gt;Уход за растением&lt;/h2&gt;</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">&lt;p&gt;Уход за бенинказой или восковой тыквой включает несколько важных аспектов, чтобы обеспечить здоровое развитие растения. Регулярный полив является одним из ключевых моментов и требует умеренного подхода. Как переувлажнение, так и недостаток влаги могут негативно сказаться на корнях, поэтому следует поддерживать оптимальный уровень влажности для растения. Более того, для стимуляции роста и урожайности рекомендуется использовать удобрения с микроэлементами, которые позволят растению получить все необходимые питательные вещества.&lt;/p&gt;
-&lt;p&gt;Однако, помимо полива и удобрения, необходимо также учитывать возможные проблемы, связанные с вредителями и болезнями. Регулярные осмотры растений помогут своевременно обнаружить наличие вредителей и провести необходимые профилактические мероприятия. Это может включать применение натуральных средств защиты, обрезку пораженных участков или использование специальных препаратов.&lt;/p&gt;
-&lt;p&gt;Наконец, для успешного выращивания бенинказы или восковой тыквы важно учитывать выбор места, подготовку и подход к посадке. Правильное место со светом и теплом, подготовленный рыхлый грунт и аккуратная посадка помогут обеспечить здоровый и эффектный рост растений. Используя все эти советы и рекомендации, вы сможете наслаждаться чудесными плодами бенинказы или восковой тыквы и создать уникальную и красивую обстановку в своем саду.&lt;/p&gt;
-</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>&lt;h2&gt;Подготовка почвы и посадка растения&lt;/h2&gt;</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">&lt;p&gt;Первым шагом для выращивания восковой тыквы является приобретение семян. Важно отметить, что восковая тыква, также известная как Бенинказа, отличается от обычной тыквы своими щетинисто-волосистыми листьями. Семена следует посадить в землю, на глубину около 2-3 см, и выращивать рассаду в течение 25-30 дней до посадки ее в открытый грунт.&lt;/p&gt;
-&lt;p&gt;Для посадки рассады выберите качественный и подходящий участок с плодородной почвой. Восковая тыква выглядит как куст, способный достигать длины около 5-10 метров. Посадка может быть выполнена как в открытом грунте, так и в грядке. Перед посадкой растения раскопайте ямку глубиной около 20-25 см и добавьте перегней или компост. Затем поместите рассаду в ямку, придавите землю и хорошо полейте. Расстояние между растениями должно быть около 1-1,5 метров, чтобы дать им достаточное пространство для роста.&lt;/p&gt;
-&lt;p&gt;После посадки растений уделяйте им правильный уход. Постоянно поддерживайте почву во время всего периода роста, регулярно поливайте растения. Восковая тыква требует достаточного количества влаги для нормального развития. Также следует обрабатывать растения от болезней и вредителей.&lt;/p&gt;
-&lt;p&gt;Восковая тыква растет быстро и может начать плодоносить уже через 70-80 дней после посадки. Ее мякоть мягкая и сочная, отлично подходит для приготовления различных блюд. Выращивание восковой тыквы на даче или в саду - отличный способ получить свежие и полезные продукты.&lt;/p&gt;
-</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>&lt;h2&gt;Борьба с вредителями и заболеваниями&lt;/h2&gt;</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">&lt;p&gt;Выращивание бенинказы или восковой тыквы требует постоянной борьбы с вредителями и заболеваниями. В данном разделе мы рассмотрим, эффективные методы борьбы с ними, чтобы обеспечить безопасный и здоровый рост растения.&lt;/p&gt;
-</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>&lt;h2&gt;Борьба с заболеваниями&lt;/h2&gt;</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">&lt;p&gt;Наиболее распространенными заболеваниями бенинказы и восковой тыквы являются грибковые инфекции, такие как мучнистая роса и черная ножка. Чтобы предотвратить эти заболевания, рекомендуется использовать специальные препараты, согласно инструкции производителя. Кроме того, следите за состоянием почвы и регулярно подкармливайте растение. Поливайте его периодически и используйте удобрения с высоким содержанием азота, фосфора и калия. Таким образом, вы повысите устойчивость растения к заболеваниям и ускорите его рост. Однако, избегайте излишнего увлажнения почвы, так как это может спровоцировать развитие гнили и других заболеваний. Кроме того, регулярно обрезайте куст для придания ему нужной формы и стимуляции роста. Если у вас возникли серьезные проблемы с вредителями или заболеваниями, лучше обратиться к специалисту или поискать информацию на специализированных форумах и видео. Помните, что каждый случай индивидуален, поэтому качественная диагностика и разумная борьба помогут вам успешно вырастить бенинказу или восковую тыкву.&lt;/p&gt;
-</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>&lt;h2&gt;Посадка и размещение&lt;/h2&gt;</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">&lt;p&gt;Перед посадкой восковой тыквы на вашей личной даче или в саду, стоит уделить внимание выбору места для нее. Чтобы растение развивалось успешно, рекомендуется выбрать место, где есть достаточное освещение, но при этом оно должно быть защищено от прямых солнечных лучей и ветра. Восковая тыква вполне устойчива к неблагоприятным условиям, однако ее лучше разместить в теплой и без сквозняков зоне, чтобы обеспечить ее оптимальный рост.&lt;/p&gt;
-</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>&lt;h2&gt;Полив и подкормка&lt;/h2&gt;</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">&lt;p&gt;Восковая тыква требует регулярного полива во время роста и цветения. Растение нуждается в достаточном количестве влаги, чтобы гарантировать его здоровый рост. Однако, необходимо быть осторожным и не допускать застой влаги, так как это может привести к гниению корней. Чтобы избежать этого, рекомендуется поливать растение умеренно, но регулярно, чтобы поддерживать оптимальный уровень влаги для его развития. Кроме того, для обеспечения дополнительного питания тыквы, можно использовать универсальные комплексные удобрения или специальные удобрения, разработанные специально для этого растения.&lt;/p&gt;
-</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>&lt;h2&gt;Обрезка&lt;/h2&gt;</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">&lt;p&gt;Обрезка восковой тыквы является важным аспектом для формирования растения и повышения урожайности. Первую обрезку рекомендуется выполнить через 25-30 дней после посадки, с удалением всех боковых побегов и оставлением только одного главного побега. Далее следует проводить еженедельные обрезки с целью предотвращения запутывания растения и достижения равномерного развития. Обрезку необходимо проводить с помощью острых и чистых инструментов, предварительно дезинфицировав их спиртом.&lt;/p&gt;
-</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>&lt;h2&gt;Плодоношение и урожай&lt;/h2&gt;</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">&lt;p&gt;Восковая тыква, также известная как ягодная тыква, начинает плодоносить через 25-30 дней после посадки. Она формирует красивоплодные ягоды с золотистой или оранжевой кожурой, которые нашли применение в кулинарии для приготовления различных блюд. Длительность плодоношения может варьироваться в зависимости от условий и сорта, но в среднем составляет несколько месяцев. Чтобы обеспечить более обильный урожай, рекомендуется регулярно подкармливать растение нутриентами и удобрениями во время его развития и плодоношения. Это способствует здоровому росту растения и увеличению количества и качества собранных ягод.&lt;/p&gt;
-</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>17</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>&lt;h2&gt;Урожай и сбор плодов&lt;/h2&gt;</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">&lt;p&gt;Бенинказа – это растение с плотными плодами, которые можно хранить до 25-30 дней в зимней кладовке. Но необходимо помнить, что незрелые плоды не годятся для пищевого употребления. Выращивание бенинказы возможно на открытом грунте, но для достижения лучших результатов рекомендуется использовать шпалеру для поддержки растения. Необходимо также правильно формировать куст, чтобы он был устойчивым. Питательные вещества в почве имеют важное значение для роста бенинказы, поэтому подкормка необходима. Если почва не содержит достаточное количество питательных веществ, это может привести к появлению плодов неправильной формы или цвета. Кроме того, растение подвержено атакам вредителей, поэтому рекомендуется использовать противошпалерную обработку. Сбор плодов бенинказы может начинаться в конце лета и продолжаться до начала осени, в зависимости от климатических условий. Их форма и цвет делают плоды бенинказы интересными для использования в кулинарии. Бенинказа обладает также полезными свойствами, такими как мочегонное и тонизирующее действие. Однако перед употреблением плодов рекомендуется проконсультироваться с врачом, так как есть противопоказания. Сбор плодов бенинказы может производиться в несколько этапов – сперва собираются незрелые плоды для дальнейшего выращивания, затем собираются плоды в зрелом состоянии для использования в пищу. Кроме того, плоды бенинказы имеют долгий срок хранения, чтобы можно было использовать их несколько недель. Собирание плодов бенинказы – это не только полезное, но и интересное занятие. Она станет прекрасным украшением вашего сада или огорода. Вы можете использовать собранные плоды для экспериментов на кухне и приготовления интересных блюд. Благодаря бенинказе вы можете стать интересным собеседником для своих соседей и друзей, заинтриговав их таким необычным растением.&lt;/p&gt;
-</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
+          <t>&lt;img src="https://supergardener.ru/wp-content/uploads/2023/11/bp.webp" alt=f""&gt;</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/2.xlsx
+++ b/2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="B1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,136 +455,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>&lt;h2&gt;6 народных правил, как сохранить огород от сглаза&lt;/h2&gt;</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">&lt;p&gt;Существуют люди, которые обладают особо сильной отрицательной энергетикой и могут нанести вред вашему любимому огороду, просто глянув на него с завистью. Такое явление называют в народе "дурной глаз". Однако, чтобы защитить себя от этого негатива, можно выполнить ряд специальных действий, которые не дадут ему проникнуть на ваш приусадебный участок. &lt;/p&gt;
-&lt;p&gt;&lt;li&gt;Вопервых, посадите на самом видном месте космею. Это растение считается отличным защитником от дурного глаза. &lt;/li&gt;&lt;/p&gt;
-&lt;p&gt;&lt;li&gt;Вовторых, заройте небольшие зеркальца в углах вашего участка. Они отражают отрицательную энергию и защищают ваш огород от вредоносных воздействий. &lt;/li&gt;&lt;/p&gt;
-&lt;p&gt;Третье, установите пугало без лица. Не рисуйте лицо на пугале и не изображайте его, чтобы не привлекать внимание дурного глаза. &lt;/p&gt;
-&lt;p&gt;Четвертое, добавьте осиновые прутики или колья в огород. Они считаются амулетом, отводящим негативное воздействие. &lt;/p&gt;
-&lt;p&gt;Пятая мера защиты - завяжите красную тесьму на заборе. Красный цвет считается защитным от дурного глаза. &lt;/p&gt;
-&lt;p&gt;И, наконец, поставьте метлу с прутьями вверх при входе на огород. Это символическое действие помогает отогнать негатив и защитить вашу землю.&lt;/p&gt;
-&lt;p&gt;Таким образом, используя эти методы защиты, вы сохраните свой огород от дурного глаза и сможете наслаждаться его процветанием.&lt;/p&gt;
-</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>&lt;img src="https://supergardener.ru/wp-content/uploads/2023/11/2302032.jpg" alt=f"6 народных правил, как сохранить огород от сглаза"&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>&lt;h2&gt;Не стоит показывать свои грядки соседям&lt;/h2&gt;</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">&lt;p&gt;Многие замечают, как после восторженных соседских возгласов о том, какой у вас богатый и пышный урожай, растения вскоре вянут и чахнут. С этим, хоть раз, сталкивался любой дачник. Еще вчера, благоухающие перцы, томаты и огурцы начинают гибнуть без видимой причины, плоды опадают, кусты сохнут. Такая ситуация может быть результатом влияния зависти, которая является одним из потусторонних сил. Даже несознательно, человек может навредить, не желая ничего плохого соседям. Но зависть, притаившаяся глубоко внутри, самостоятельно совершит «темное дело». Чтобы избежать таких неприятностей, необходимо не допускать зависти и просто не позволять проводить «экскурсии» по своему огороду. Не стоит брать у соседей какие-либо предметы, включая инвентарь. Ведь такие действия также могут привести к потере урожая, поэтому не стоит рисковать.&lt;/p&gt;
-</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>&lt;h2&gt;Не нужно угощать соседей овощами и фруктами со своего участка&lt;/h2&gt;</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">&lt;p&gt;Здесь та же история — только вы угостили соседку яблоками, как дерево на следующий год перестало плодоносить. Такие случаи нередки, а причина одна — зависть и темные мысли. И это даже может быть не только из-за соседей, они могли рассказать кому-то еще о ваших чудесных яблоках, а завистников вокруг всегда немало. Если даже соседи просят попробовать что-то с ваших кустов или деревьев — лучше тактично отказаться. Даже приличные доброжелательные с виду люди могут стать источником подсознательной зависти и проблем для вас. Поэтому, лучше пригласите соседей домой на чашку чая с пирогом, а не на экскурсию по вашему участку.&lt;/p&gt;
-</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>&lt;img src="https://supergardener.ru/wp-content/uploads/2023/11/2302036.jpg" alt=f"Не нужно угощать соседей овощами и фруктами со своего участка"&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>&lt;h2&gt;Как «наколдовать» хороший урожай&lt;/h2&gt;</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">&lt;p&gt;Уважаемые садоводы! Предлагаем вам уникальный способ оберега, который поможет вам получить максимальный урожай с грядок. Вставьте два острых ножа в землю, направляя их лезвия друг на друга в диагональном положении. Этот оберег будет защищать ваш сад от всяких негативных воздействий. &lt;/p&gt;
-&lt;p&gt;Хочу поделиться ещё одним секретом. Высаживайте семена или рассаду в землю только в одиночестве, когда никого нет рядом. Не показывайте никому свою посадку, даже близким друзьям. В процессе высадки произносите фразу: "Расти, не плошай, ждет большой урожай!". Если вы замечаете, что рассада плохо приживается, попробуйте читать "Отче наш" над ростками на убывающей луне, а также опрыскивать их святой водой. &lt;/p&gt;
-&lt;p&gt;Если вы заметили какие-либо нарушения, пожалуйста, сообщите нам о содержании.&lt;/p&gt;
-</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>&lt;img src="https://supergardener.ru/wp-content/uploads/2023/11/779408_300x200.jpg" alt=f"Как «наколдовать» хороший урожай"&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>&lt;h2&gt;&lt;/h2&gt;</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">&lt;p&gt;Утро, пока прохладно и не жарко, приглашаю на наш огород ... почему наш, потому, что трудимся тремя семьями, копаем, садим, ухаживаем, а потом собираем замечательные овощи. Приглашаю вас присоединиться и прогуляться со мной по увлекательному пути нашей земли. Все фото, которые вы увидите ниже, я сделала сегодня утром без использования фотошопа. Ну, что же, поехали!&lt;/p&gt;
-&lt;p&gt;Начну с острого перца - у нас их много! Это мое самое любимое место. А еще есть помидорный рай, где в песке воробьи любят купаться. Это так забавно наблюдать за ними! Жаль, что они не попали в кадр, но сегодня я обязательно сделаю снимки. Кабачковый рай и капустка тоже вызывают восхищение. А вот огуречный рай - это истинное наслаждение!&lt;/p&gt;
-&lt;p&gt;А у нас также растет фасоль стручковая. Скоро соберем урожай. А вот помидорчики - сладенькие и ароматные. Мы выращиваем свой салат, морковку, укроп, петрушку и лук порей. Чем больше, тем лучше!&lt;/p&gt;
-&lt;p&gt;А тут у нас разросся хрен. Морковка выглядит прекрасно. У соседа абрикосы тоже радуют глаз. Он всегда угощает нас своим урожаем. А у соседки много цветов, она очень любит ими заниматься.&lt;/p&gt;
-&lt;p&gt;А это наша яблоня. Немного декорации добавило особого очарования. Спасибо, что прогулялись со мной по нашему огороду. Я обожаю утром пить кофе и читать журнал на улице. Собрала яблочки, которые упали - подумаю, что с ними сделать. Теперь я допила кофе, полила огород и отправляюсь по своим делам.&lt;/p&gt;
-&lt;p&gt;Источник: Понравилась статья? Подпишитесь на канал, чтобы быть в курсе самых интересных материалов.&lt;/p&gt;
-</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>&lt;img src="https://supergardener.ru/wp-content/uploads/2023/11/bp.webp" alt=f""&gt;</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
